--- a/DUCMA_documents/estimation.xlsx
+++ b/DUCMA_documents/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>faire en sorte que le serveur ne soit pas seulement en local</t>
+  </si>
+  <si>
+    <t>commencer les  activity et le java</t>
+  </si>
+  <si>
+    <t>mise en place du serveur apache, php, mysql et phpmyadmin</t>
+  </si>
+  <si>
+    <t>création de la bd</t>
+  </si>
+  <si>
+    <t>tentative de connexion à la bd (échec)</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>tentative de requête à l'aide d'android(échec)</t>
+  </si>
+  <si>
+    <t>documentation concernant android et php</t>
   </si>
 </sst>
 </file>
@@ -281,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1589,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1698,10 +1720,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>82</v>
@@ -1791,10 +1813,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>8</v>
@@ -1821,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,44 +1901,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42765</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42766</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42772</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42773</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42775</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42779</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42780</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>42783</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1994,13 +2064,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2022,22 +2092,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2229,10 +2299,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2257,22 +2327,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2462,10 +2532,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2490,22 +2560,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2695,10 +2765,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2723,22 +2793,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DUCMA_documents/estimation.xlsx
+++ b/DUCMA_documents/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -159,6 +156,30 @@
   </si>
   <si>
     <t>documentation concernant android et php</t>
+  </si>
+  <si>
+    <t>documentation et tentative de correction de mes fichiers php</t>
+  </si>
+  <si>
+    <t>ddocumentation sur le php</t>
+  </si>
+  <si>
+    <t>tentative de correction de ma bd</t>
+  </si>
+  <si>
+    <t>correction de mon php (avec prof)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correction de mon php </t>
+  </si>
+  <si>
+    <t>ajout et affichage bd finis (foonctionne seulement par firefox)</t>
+  </si>
+  <si>
+    <t>tentative d'insertion par android</t>
+  </si>
+  <si>
+    <t>documentation sur android</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1645,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1669,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -1680,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -1691,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1702,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>35</v>
@@ -1713,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
         <v>20</v>
@@ -1757,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>8</v>
@@ -1843,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,7 +1926,7 @@
         <v>42765</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="15">
         <v>3</v>
@@ -1916,7 +1937,7 @@
         <v>42766</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -1927,7 +1948,7 @@
         <v>42772</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="15">
         <v>3</v>
@@ -1938,7 +1959,7 @@
         <v>42773</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -1949,7 +1970,7 @@
         <v>42775</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="15">
         <v>3</v>
@@ -1960,7 +1981,7 @@
         <v>42779</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15">
         <v>3</v>
@@ -1971,7 +1992,7 @@
         <v>42780</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="15">
         <v>5</v>
@@ -1982,7 +2003,7 @@
         <v>42783</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2075,13 +2096,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2090,7 +2111,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2124,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,51 +2203,103 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42786</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42787</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42790</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42769</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42772</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42773</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42777</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>42779</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18">
+        <v>42780</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -2305,18 +2378,18 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2325,7 +2398,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2543,13 +2616,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2558,7 +2631,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2629,7 +2702,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2776,13 +2849,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2791,7 +2864,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21"/>
     </row>

--- a/DUCMA_documents/estimation.xlsx
+++ b/DUCMA_documents/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>documentation sur android</t>
+  </si>
+  <si>
+    <t>réussi mon objectif d'insérer un objet dans la bd. Mon nouvel objectif est de pouvoir le faire avec android, et si possible, mettre les bonnes données.</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,7 +2394,9 @@
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2400,7 +2405,9 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>

--- a/DUCMA_documents/estimation.xlsx
+++ b/DUCMA_documents/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>réussi mon objectif d'insérer un objet dans la bd. Mon nouvel objectif est de pouvoir le faire avec android, et si possible, mettre les bonnes données.</t>
+  </si>
+  <si>
+    <t>RÉUSSITE !! Insertion dans la bd.</t>
+  </si>
+  <si>
+    <t>Insertion dans la bd (avec thread)</t>
+  </si>
+  <si>
+    <t>spinner</t>
+  </si>
+  <si>
+    <t>spinner bug…</t>
+  </si>
+  <si>
+    <t>présentation</t>
+  </si>
+  <si>
+    <t>bug spinner corrigé.</t>
+  </si>
+  <si>
+    <t>insertion avec le spinner</t>
+  </si>
+  <si>
+    <t>prochain objetif : voir mes données avec une list view.</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2439,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,49 +2521,103 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42814</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42815</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42817</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42821</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42822</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42825</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42828</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>42829</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18">
+        <v>42832</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -2618,7 +2696,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2640,7 +2718,9 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>

--- a/DUCMA_documents/estimation.xlsx
+++ b/DUCMA_documents/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -207,6 +207,33 @@
   </si>
   <si>
     <t>prochain objetif : voir mes données avec une list view.</t>
+  </si>
+  <si>
+    <t>documentation sur les retours php.</t>
+  </si>
+  <si>
+    <t>documentation sur les retours php et tentatives ratées de recevoirr les données.</t>
+  </si>
+  <si>
+    <t>données recues!</t>
+  </si>
+  <si>
+    <t>traitements des données recues avec JSON</t>
+  </si>
+  <si>
+    <t>tentative ratées de mettre les données dans un listview</t>
+  </si>
+  <si>
+    <t>listview fonctionnel (grâce à Francis)</t>
+  </si>
+  <si>
+    <t>obtention de l'objet sélectionné dans la listview</t>
+  </si>
+  <si>
+    <t>correction du php</t>
+  </si>
+  <si>
+    <t>suppression de l'objet dans la bd</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2752,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2810,49 +2837,103 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42835</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="12">
+        <v>42836</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42840</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42842</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42843</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42847</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42848</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>42854</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18">
+        <v>42855</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -2931,7 +3012,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2944,7 +3025,9 @@
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
